--- a/measurables1-2.xlsx
+++ b/measurables1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haini\OneDrive\Documents\Classes\EE445L\Lab10\EE445L-SP22-Lab-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20239CE1-56F0-469F-BBD2-49D6EC666E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1531E76-097D-45E4-86FF-4B41C3801BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7055AAD-9DFD-42E0-B301-EE6A06070202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>duty%</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>rps</t>
+  </si>
+  <si>
+    <t>Vm*duty% ()</t>
   </si>
 </sst>
 </file>
@@ -102,6 +105,2722 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>power vs rps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.861399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.39799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>445.17330000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9EBD-49D2-965D-FD7F643F1E01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2048568272"/>
+        <c:axId val="2048567856"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4220000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.48700000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>82.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50.861399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.4610000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4:$F$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.12</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>156.62400000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.4350000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$5:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>110.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>293.39799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.4089999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.29</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>115.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>445.17330000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.383</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>duty%</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>voltage (V)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>current (mA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>power (mW)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rps</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Vm*duty% ()</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$7:$F$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="1">
+                        <c:v>4.87</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9EBD-49D2-965D-FD7F643F1E01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2048568272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>power (mW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048567856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2048567856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048568272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>voltage vs current</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5047244094488185E-2"/>
+                  <c:y val="0.37458333333333332"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.48700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D3C-4EE3-ABB7-BF33C984F6FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2042811536"/>
+        <c:axId val="2042810288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2042811536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042810288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2042810288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042811536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3E8A86-1BB4-47F4-897E-8A49FB922CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2016FE94-2B5D-405E-BB76-67AEF49D2DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,15 +3120,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A258A8-4CDF-4686-92A0-0E0347D2798F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +3144,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -443,8 +3165,12 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>$B$7*(A2/100)</f>
+        <v>0.48700000000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
@@ -461,8 +3187,12 @@
       <c r="E3">
         <v>39</v>
       </c>
+      <c r="F3">
+        <f>$B$7*(A3/100)</f>
+        <v>1.4610000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -479,8 +3209,12 @@
       <c r="E4">
         <v>56</v>
       </c>
+      <c r="F4">
+        <f>$B$7*(A4/100)</f>
+        <v>2.4350000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -497,8 +3231,12 @@
       <c r="E5">
         <v>65</v>
       </c>
+      <c r="F5">
+        <f>$B$7*(A5/100)</f>
+        <v>3.4089999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>90</v>
       </c>
@@ -515,8 +3253,18 @@
       <c r="E6">
         <v>73</v>
       </c>
+      <c r="F6">
+        <f>$B$7*(A6/100)</f>
+        <v>4.383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4.87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>